--- a/scripts/plantillas/plantillas mesa de ayuda/01_Catalogos_Tickets/tickets.xlsx
+++ b/scripts/plantillas/plantillas mesa de ayuda/01_Catalogos_Tickets/tickets.xlsx
@@ -4,7 +4,6 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
-    <sheet name="Instrucciones" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
@@ -398,320 +397,1772 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <cols>
-    <col min="1" max="1" width="21.83203125" customWidth="1"/>
-    <col min="2" max="2" width="48.83203125" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" customWidth="1"/>
-    <col min="10" max="10" width="15.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>titulo</v>
+        <v>No.Ticket</v>
       </c>
       <c r="B1" t="str">
-        <v>descripcion</v>
+        <v>name</v>
       </c>
       <c r="C1" t="str">
-        <v>tipo</v>
+        <v>status</v>
       </c>
       <c r="D1" t="str">
-        <v>categoria</v>
+        <v>urgency</v>
       </c>
       <c r="E1" t="str">
-        <v>urgencia</v>
+        <v>itilcategories_id</v>
       </c>
       <c r="F1" t="str">
-        <v>impacto</v>
+        <v>locations_id</v>
       </c>
       <c r="G1" t="str">
-        <v>solicitante</v>
+        <v>technician</v>
       </c>
       <c r="H1" t="str">
-        <v>asignado</v>
+        <v>requester_email</v>
       </c>
       <c r="I1" t="str">
-        <v>grupo</v>
+        <v>date</v>
       </c>
       <c r="J1" t="str">
-        <v>ubicacion</v>
+        <v>solution</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>No funciona el correo</v>
+        <v>2473</v>
       </c>
       <c r="B2" t="str">
-        <v>El usuario no puede enviar correos desde Outlook</v>
+        <v>Remover de mi cargo las UO San Juan, Cruz Grande y Pinotepa de la región Costa, ya que esas UO ya cuentan con tecnico de seguridad</v>
       </c>
       <c r="C2" t="str">
-        <v>Incidente</v>
+        <v>2 - Se está trabajando en eso</v>
       </c>
       <c r="D2" t="str">
-        <v>Correo Electrónico</v>
+        <v>2 - Medio-Tengo inconvenientes</v>
       </c>
       <c r="E2" t="str">
-        <v>3</v>
+        <v>TAR</v>
       </c>
       <c r="F2" t="str">
-        <v>3</v>
+        <v>UO Cárdenas Cristal</v>
       </c>
       <c r="G2" t="str">
-        <v>jperez</v>
+        <v>Itzel Garcia</v>
       </c>
       <c r="H2" t="str">
-        <v>tecnico1</v>
+        <v>darwin.tosca@kof.com</v>
       </c>
       <c r="I2" t="str">
-        <v>Soporte Nivel 1</v>
+        <v>2026-02-10</v>
       </c>
       <c r="J2" t="str">
-        <v>Oficina Central</v>
+        <v/>
+      </c>
+    </row>
+    <row r="3" xml:space="preserve">
+      <c r="A3" t="str">
+        <v>2472</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Para el colaborador Diego Tolalpa Canche con NSS 03149733960, Borrar todos los documentos a excepción de los que tienen el nombre: "2.- INE Diego Tolalpa Canche.pdf"</v>
+      </c>
+      <c r="C3" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D3" t="str">
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Planta Morelia</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Itzel Garcia</v>
+      </c>
+      <c r="H3" t="str">
+        <v>mesquivel.ieepm@gmail.com</v>
+      </c>
+      <c r="I3" t="str">
+        <v>2026-02-10</v>
+      </c>
+      <c r="J3" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema:
+El usuario solicitó la eliminación de los documentos cargados para el colaborador Diego Tolalpa Canche, conservando únicamente el archivo correspondiente a su identificación oficial.
+Causa:
+Se requería depurar la documentación del colaborador, ya que existían archivos que no debían permanecer cargados en el proceso de Listado de Personal.
+Solución:
+Se eliminaron los documentos solicitados, manteniendo únicamente el archivo “2.- INE Diego Tolalpa Canche.pdf”.
+Se indicó al usuario actu</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str">
+        <v>2471</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Para el colaborador Jael Tolalpa Canche con NSS 38170182653, Borrar todos los documentos a ecepción de los que tienen el nombre: "2.- INE Jael Tolalpa.pdf"</v>
+      </c>
+      <c r="C4" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Planta Morelia</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H4" t="str">
+        <v>mesquivel.ieepm@gmail.com</v>
+      </c>
+      <c r="I4" t="str">
+        <v>2026-02-10</v>
+      </c>
+      <c r="J4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario mesquivel.ieepm@gmail.com solicita eliminar documentos del colaborador Jael Tolalpa Canche, conservando únicamente el INE.
+Causa: Depuración o corrección de expediente por parte del usuario.
+Solución: Se realizó la limpieza de archivos en la base de datos, preservando únicamente el documento "2.- INE Jael Tolalpa.pdf".</v>
+      </c>
+    </row>
+    <row r="5" xml:space="preserve">
+      <c r="A5" t="str">
+        <v>2470</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Para el colaborador Israel Tolalpa Hernandez con NSS 01937801767, Borrar todos los documentos a ecepción de los que tienen el nombre: "2.- INE Israel Tolalpa Hdz.pdf" y "CREDENCIAL REPSE ISRAEL TOLALP</v>
+      </c>
+      <c r="C5" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Planta Morelia</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H5" t="str">
+        <v>mesquivel.ieepm@gmail.com</v>
+      </c>
+      <c r="I5" t="str">
+        <v>2026-02-10</v>
+      </c>
+      <c r="J5" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario mesquivel.ieepm@gmail.com solicita eliminar todos los documentos del colaborador Israel Tolalpa Hernandez, excepto INE y Credencial REPSE.
+Causa: Depuración o corrección de expediente por parte del usuario.
+Solución: Se realizó la limpieza de archivos en la base de datos, preservando únicamente los dos documentos indicados por el usuario.</v>
+      </c>
+    </row>
+    <row r="6" xml:space="preserve">
+      <c r="A6" t="str">
+        <v>2469</v>
+      </c>
+      <c r="B6" t="str">
+        <v xml:space="preserve">ME APARECE EL PROVEEDOR CARGADO EN "INFORME CONTROL DE PROYECTOS" SE REVISO LA DOCUMENTACIÓN GENERAL Y FUE APROBADO, AL INTENTAR FILTRAR EN "BUSQUEDA DE PROYECTOS" BUSCAR POR ORDEN DE COMPRA /RFC, NO </v>
+      </c>
+      <c r="C6" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D6" t="str">
+        <v>1 - Alto-Urgente</v>
+      </c>
+      <c r="E6" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F6" t="str">
+        <v>UO Huajuapan</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H6" t="str">
+        <v>cecilia.indo@kof.com</v>
+      </c>
+      <c r="I6" t="str">
+        <v>2026-02-10</v>
+      </c>
+      <c r="J6" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: La usuaria cecilia.indo@kof.com reporta no poder encontrar el proyecto (OC 5501170856) en "Búsqueda de Proyectos" para continuar la validación, aunque ya aprobó la documentación general.
+Causa: Error de navegación (User Error). El usuario intentaba filtrar en lugar de abrir el detalle del proyecto.
+Solución: Se confirmó la existencia del proyecto. Se instruyó a la usuaria dar clic en el renglón del proyecto para abrir la ventana de "Detalles" y proceder con el flujo. Se adjuntó guía </v>
+      </c>
+    </row>
+    <row r="7" xml:space="preserve">
+      <c r="A7" t="str">
+        <v>2468</v>
+      </c>
+      <c r="B7" t="str">
+        <v>ya avance y se reviso toda la información se aproból al llegar al "registro de precalificación outside" y llenar todos los formularios que me tocan, solo se guarda la información de "documentación gen</v>
+      </c>
+      <c r="C7" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2 - Medio-Tengo inconvenientes</v>
+      </c>
+      <c r="E7" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F7" t="str">
+        <v>tlaxiaco</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H7" t="str">
+        <v>cecilia.indo@kof.com</v>
+      </c>
+      <c r="I7" t="str">
+        <v>2026-02-10</v>
+      </c>
+      <c r="J7" t="str" xml:space="preserve">
+        <v xml:space="preserve">"Problema: La usuaria cecilia.indo@kof.com reporta que los formularios de "Precalificación Outside" no se guardan y permanecen en "Pendiente", excepto Documentación General.
+Causa: Error de captura en la OC. Los formularios 2, 3 y 5 se guardaron con una OC incorrecta (8131108397). Además, el Formulario 4 nunca se registró.
+Solución:
+Soporte: Se corrigió la OC en la base de datos para los formularios 2, 3 y 5, reasignándolos a la OC correcta (8331108398).
+Usuario: Se solicitó llenar el Formul</v>
+      </c>
+    </row>
+    <row r="8" xml:space="preserve">
+      <c r="A8" t="str">
+        <v>2467</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Eliminar de plataforma al personal Edisson y  Cruz Sevilla, eliminar documentos de historia clinica y antidoping de los colaboradores Emmanuel peralta y Luis Enrique Villavicencio</v>
+      </c>
+      <c r="C8" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Planta Apizaco</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H8" t="str">
+        <v>seguridad@ctsingenieria.com</v>
+      </c>
+      <c r="I8" t="str">
+        <v>2026-02-10</v>
+      </c>
+      <c r="J8" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario seguridad@ctsingenieria.com solicita eliminar documentos específicos de dos colaboradores y dar de baja a otros dos trabajadores (Edisson y Cruz Sevilla).
+Causa: Mantenimiento de listado de personal y corrección de documentos.
+Solución:
+Soporte: Se eliminaron manualmente los documentos de Historia Clínica y Antidoping solicitados.
+Usuario: Se instruyó al usuario para que elimine a los trabajadores desde la plataforma usando la casilla "Eliminar a colaborador", recordándo</v>
+      </c>
+    </row>
+    <row r="9" xml:space="preserve">
+      <c r="A9" t="str">
+        <v>2466</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Hola Equipo Entersys, quiero actualizar los documentos del tecnico Cesar Mauricio Reyes Silva pero al cargar o actualizar sus DC3 y Sua no me deja guardar los cambios</v>
+      </c>
+      <c r="C9" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F9" t="str">
+        <v>UO Macro Leon</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H9" t="str">
+        <v>MJLOPEZ@MOMATT.COM</v>
+      </c>
+      <c r="I9" t="str">
+        <v>2026-02-10</v>
+      </c>
+      <c r="J9" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario MJLOPEZ@MOMATT.COM reporta que no puede guardar cambios al actualizar DC3 y SUA del técnico Cesar Mauricio Reyes.
+Causa: Error de validación en formulario (formato de fecha incorrecto o campos obligatorios vacíos).
+Solución: Se instruyó al usuario corregir el formato de fecha a DD/MM/AA (dos dígitos para el año) y llenar todos los campos obligatorios para desbloquear el botón de guardar.</v>
+      </c>
+    </row>
+    <row r="10" xml:space="preserve">
+      <c r="A10" t="str">
+        <v>2465</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Nos llegó una notificación sobre el proyecto de la O.C. 8131112424 de Distribución primaria-León, el proyecto ya se llevó a cabo, pero la revisión de la información se realizó fuera de la plataforma d</v>
+      </c>
+      <c r="C10" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Distribución primaria - León</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H10" t="str">
+        <v>erika.rodriguez@netpoint.com.mx</v>
+      </c>
+      <c r="I10" t="str">
+        <v>2026-02-10</v>
+      </c>
+      <c r="J10" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario erika.rodriguez@netpoint.com.mx solicita eliminar dos proyectos (León y Viga) que ya finalizaron y se gestionaron por fuera, para detener notificaciones. No tiene contacto con los técnicos.
+Causa: Proyectos activos en sistema pero concluidos operativamente. El contratista no tiene permisos para borrar.
+Solución: Se informó que solo el Técnico puede dar de baja. Se adjuntaron/copiaron los correos de los Técnicos de Seguridad de ambas unidades para que el contratista gestion</v>
+      </c>
+    </row>
+    <row r="11" xml:space="preserve">
+      <c r="A11" t="str">
+        <v>2464</v>
+      </c>
+      <c r="B11" t="str">
+        <v>No aparece RFC, ni fotografía</v>
+      </c>
+      <c r="C11" t="str">
+        <v>4 - Esperando respuesta</v>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v>ON Boarding</v>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H11" t="str">
+        <v>operaciones@servicioatsi.com</v>
+      </c>
+      <c r="I11" t="str">
+        <v>2026-02-10</v>
+      </c>
+      <c r="J11" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario operaciones@servicioatsi.com reporta que su certificado/documento no muestra el RFC ni la fotografía.
+Causa: Error en la generación o recepción del archivo final.
+Solución: Se reenvió manualmente el certificado corregido al correo del usuario. Se le instruyó revisar Spam y notificar si no llega en 5 minutos.</v>
+      </c>
+    </row>
+    <row r="12" xml:space="preserve">
+      <c r="A12" t="str">
+        <v>2463</v>
+      </c>
+      <c r="B12" t="str">
+        <v xml:space="preserve">La parte contratista tiene dado de alta un personal que ya se había rechazo en plataforma por falta de información, ya completaron el proceso y a ellos en plataforma les aparece pero en mi listado al </v>
+      </c>
+      <c r="C12" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D12" t="str">
+        <v>1 - Alto-Urgente</v>
+      </c>
+      <c r="E12" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F12" t="str">
+        <v>UO Querétaro</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H12" t="str">
+        <v>itzel.munoz@kof.com</v>
+      </c>
+      <c r="I12" t="str">
+        <v>2026-02-10</v>
+      </c>
+      <c r="J12" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: La usuaria itzel.munoz@kof.com reporta no visualizar al colaborador Gabriel Cruz García (NSS 02248293132) a pesar de que el contratista ya corrigió la información rechazada.
+Causa: Error de sincronización de estatus en la vista del Técnico (caché o retraso en la actualización del estado "rechazado" a "pendiente").
+Solución: Se forzó la actualización del registro en la base de datos. Se instruyó a la usuaria refrescar la página (F5) para ver los cambios.</v>
+      </c>
+    </row>
+    <row r="13" xml:space="preserve">
+      <c r="A13" t="str">
+        <v>2462</v>
+      </c>
+      <c r="B13" t="str">
+        <v>El personal sube sus vigencia y documentos de trabajos en alturas y no se ven reflejadas para trabajos permitodos (trabajos en alturas) "05139306863" "81169801766" "62876980772" "48018264647" "0297793</v>
+      </c>
+      <c r="C13" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D13" t="str">
+        <v>1 - Alto-Urgente</v>
+      </c>
+      <c r="E13" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F13" t="str">
+        <v>UO Puebla Sur</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H13" t="str">
+        <v>jesus.angel@kof.com</v>
+      </c>
+      <c r="I13" t="str">
+        <v>2026-02-10</v>
+      </c>
+      <c r="J13" t="str" xml:space="preserve">
+        <v xml:space="preserve">"Problema: El usuario jesus.angel@kof.com reporta que varios trabajadores (5 NSS especificados) tienen sus documentos de alturas cargados pero el sistema no los habilita para dicho riesgo.
+Causa: Error de captura (User Error). El contratista subió los archivos pero omitió llenar los campos de fechas/vigencia en el formulario, impidiendo la validación automática.
+Solución: Se explicó al técnico que el contratista debe ingresar las fechas en los campos correspondientes para que el sistema recono</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str">
+        <v>2461</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Solicitamos su apoyo para modificar la induccion de los colaboradores: Bartolo Bernabe Dimas, Isaac Antonio Luis y Yair Domingo Cruz</v>
+      </c>
+      <c r="C14" t="str">
+        <v>4 - Esperando respuesta</v>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F14" t="str">
+        <v>UO Cuautitlán</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H14" t="str">
+        <v>erika.coprinci@gmail.com</v>
+      </c>
+      <c r="I14" t="str">
+        <v>2026-02-10</v>
+      </c>
+      <c r="J14" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario erika.coprinci@gmail.com solicita modificar la inducción de 3 colaboradores (Bartolo, Isaac, Yair) para corregir certificados.
+Causa: Ajuste manual requerido en BD o validación de fotos pendiente.
+Solución: Se notificó al usuario que el caso está en revisión para corrección interna. Ticket en proceso (Pendiente de confirmar solución final).</v>
+      </c>
+    </row>
+    <row r="15" xml:space="preserve">
+      <c r="A15" t="str">
+        <v>2460</v>
+      </c>
+      <c r="B15" t="str">
+        <v xml:space="preserve">La parte contratista tiene dado de alta un personal que ya se había rechazo en plataforma por falta de información, ya completaron el proceso y a ellos en plataforma les aparece pero en mi listado al </v>
+      </c>
+      <c r="C15" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D15" t="str">
+        <v>1 - Alto-Urgente</v>
+      </c>
+      <c r="E15" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F15" t="str">
+        <v>UO Querétaro</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H15" t="str">
+        <v>itzel.munoz@kof.com</v>
+      </c>
+      <c r="I15" t="str">
+        <v>2026-02-10</v>
+      </c>
+      <c r="J15" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: La usuaria itzel.munoz@kof.com reporta que no visualiza a un trabajador que el contratista ya corrigió (previamente rechazado), aunque el contratista afirma que ya está cargado.
+Causa: Posible error de sincronización o estatus no actualizado en la vista del técnico. Pendiente de revisión.
+Solución: Se solicitó el Nombre y NSS del trabajador específico para rastrear el registro en la base de datos y validar su estado.</v>
+      </c>
+    </row>
+    <row r="16" xml:space="preserve">
+      <c r="A16" t="str">
+        <v>2459</v>
+      </c>
+      <c r="B16" t="str">
+        <v>no se realiza la actividad visualizo que se realiza en septiembre estaba otra compañera de tecnico de seguridad</v>
+      </c>
+      <c r="C16" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D16" t="str">
+        <v>1 - Alto-Urgente</v>
+      </c>
+      <c r="E16" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F16" t="str">
+        <v>UO Nochixtlan</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H16" t="str">
+        <v>marcela.maldonado@kof.com</v>
+      </c>
+      <c r="I16" t="str">
+        <v>2026-02-09</v>
+      </c>
+      <c r="J16" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: La usuaria marcela.maldonado@kof.com reporta un proyecto antiguo (septiembre) de una gestión anterior que nunca se realizó y desea regularizarlo.
+Causa: Proyecto obsoleto/No ejecutado (Rezago administrativo).
+Solución: Se indicaron los pasos para realizar la "Solicitud de Baja" desde el Informe de Control de Proyectos, detonando el flujo de aprobación hacia el Ejecutivo de Seguridad. Se compartió video tutorial.</v>
+      </c>
+    </row>
+    <row r="17" xml:space="preserve">
+      <c r="A17" t="str">
+        <v>2458</v>
+      </c>
+      <c r="B17" t="str">
+        <v>El proveedor Argoneros subio la OC 5501169840 sin embargo esta no es la orden de compra a ejecutar</v>
+      </c>
+      <c r="C17" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D17" t="str">
+        <v>3 - Bajo-Puedo esperar</v>
+      </c>
+      <c r="E17" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F17" t="str">
+        <v>UO CEDIS Villahermosa</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Itzel Garcia</v>
+      </c>
+      <c r="H17" t="str">
+        <v>janet.mendez@kof.com</v>
+      </c>
+      <c r="I17" t="str">
+        <v>2026-02-09</v>
+      </c>
+      <c r="J17" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema:
+La orden de compra cargada en el proyecto no corresponde a la orden de compra que se ejecutará.
+Causa:
+El proveedor cargó una orden de compra incorrecta durante el proceso de Alta de proyecto.
+Solución:
+Se indicó que es necesario solicitar la baja del proyecto desde el Informe de Control de Proyectos, mediante la opción “Solicitud de Baja”, para que el Ejecutivo de Seguridad valide la solicitud y se pueda continuar posteriormente con el alta correcta del proyecto.</v>
+      </c>
+    </row>
+    <row r="18" xml:space="preserve">
+      <c r="A18" t="str">
+        <v>2457</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Deseo modificar la descripción de los pasos de las actividades primarias de mi proyecto puesto que repeti el titulo en la descripción de actividad y eso es incirrecto en la UO deseo agregar la descrip</v>
+      </c>
+      <c r="C18" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F18" t="str">
+        <v>UO CEDIS Villahermosa</v>
+      </c>
+      <c r="G18" t="str">
+        <v>Itzel Garcia</v>
+      </c>
+      <c r="H18" t="str">
+        <v>argoneros_2011_fama@hotmail.com</v>
+      </c>
+      <c r="I18" t="str">
+        <v>2026-02-09</v>
+      </c>
+      <c r="J18" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema:
+El usuario identifica que en el apartado de pasos de la actividad, dentro del alcance del proyecto, se visualiza información repetida y considera que esto impide la continuidad del proceso por parte de Seguridad de la UO.
+Causa:
+La columna “Primaria” que aparece en el informe es un campo estándar del sistema presente en todas las Unidades Operativas. Su función es mostrar de manera informativa el resumen del paso de la actividad y su estatus para el Técnico de Seguridad, por lo que no</v>
+      </c>
+    </row>
+    <row r="19" xml:space="preserve">
+      <c r="A19" t="str">
+        <v>2456</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Quiero actualizar documentación IMSS y DC3, pero me sale un recuadro de invalido.</v>
+      </c>
+      <c r="C19" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F19" t="str">
+        <v>UO San Juan del Río</v>
+      </c>
+      <c r="G19" t="str">
+        <v>Itzel Garcia</v>
+      </c>
+      <c r="H19" t="str">
+        <v>MARIA.GIL@GLOBALFL.COM.MX</v>
+      </c>
+      <c r="I19" t="str">
+        <v>2026-02-09</v>
+      </c>
+      <c r="J19" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema:
+Al intentar actualizar la documentación IMSS y DC3, el sistema muestra un mensaje de “inválido” y no permite guardar la información.
+Causa:
+Existen campos obligatorios identificados con asterisco rojo que no han sido completados.
+Solución:
+Se indicó al usuario que debe completar todos los campos marcados con asterisco rojo, ya que estos son requeridos para poder guardar la información.
+Se le informó que, una vez completados correctamente, el sistema permitirá la actualización de la d</v>
+      </c>
+    </row>
+    <row r="20" xml:space="preserve">
+      <c r="A20" t="str">
+        <v>2455</v>
+      </c>
+      <c r="B20" t="str">
+        <v>No puedo ingresar a la plataforma desde el enlace habitual</v>
+      </c>
+      <c r="C20" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D20" t="str">
+        <v>1 - Alto-Urgente</v>
+      </c>
+      <c r="E20" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F20" t="str">
+        <v>UO Tenango</v>
+      </c>
+      <c r="G20" t="str">
+        <v>Itzel Garcia</v>
+      </c>
+      <c r="H20" t="str">
+        <v>daniela.navag@kof.com</v>
+      </c>
+      <c r="I20" t="str">
+        <v>2026-02-09</v>
+      </c>
+      <c r="J20" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problemática:
+Técnica de Seguridad indica que no puede ingresar a la plataforma utilizando su usuario.
+Causa probable:
+Olvido de contraseña.
+Solución aplicada:
+Se envió un correo para el restablecimiento de su contraseña, a fin de que pueda acceder nuevamente a la plataforma con su usuario y contraseña de manera correcta.</v>
+      </c>
+    </row>
+    <row r="21" xml:space="preserve">
+      <c r="A21" t="str">
+        <v>2454</v>
+      </c>
+      <c r="B21" t="str">
+        <v>se adjunto un archivo exel erroneo, solicito de su apoyo para la eliminacion del mismo</v>
+      </c>
+      <c r="C21" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F21" t="str">
+        <v>UO Querétaro</v>
+      </c>
+      <c r="G21" t="str">
+        <v>Itzel Garcia</v>
+      </c>
+      <c r="H21" t="str">
+        <v>auxiliar1@fireandocntrols.com</v>
+      </c>
+      <c r="I21" t="str">
+        <v>2026-02-09</v>
+      </c>
+      <c r="J21" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problemática:
+Se adjuntó un archivo Excel incorrecto y se solicitó el apoyo para su eliminación.
+Acción realizada:
+Se realizó la eliminación de los archivos adjuntos solicitados en el proceso Procedimiento Operativo (Alcance).</v>
+      </c>
+    </row>
+    <row r="22" xml:space="preserve">
+      <c r="A22" t="str">
+        <v>2453</v>
+      </c>
+      <c r="B22" t="str">
+        <v>se adjunto un archivo exel erroneo, solicito de su apoyo para la eliminacion del mismo</v>
+      </c>
+      <c r="C22" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F22" t="str">
+        <v>UO Querétaro</v>
+      </c>
+      <c r="G22" t="str">
+        <v>Itzel Garcia</v>
+      </c>
+      <c r="H22" t="str">
+        <v>auxiliar1@fireandcontrols.com</v>
+      </c>
+      <c r="I22" t="str">
+        <v>2026-02-09</v>
+      </c>
+      <c r="J22" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problemática:
+Se adjuntó un archivo Excel incorrecto y se solicitó el apoyo para su eliminación.
+Acción realizada:
+Se realizó la eliminación de los archivos adjuntos solicitados en el proceso Procedimiento Operativo (Alcance).</v>
+      </c>
+    </row>
+    <row r="23" xml:space="preserve">
+      <c r="A23" t="str">
+        <v>2452</v>
+      </c>
+      <c r="B23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Buen día estimado Jorge Alejandro, sirva el presente medio para enviarle un cordial saludo.
+solicito de su amable apoye para validar el curso de inducción, ya que al momento de capturar el registro  n</v>
+      </c>
+      <c r="C23" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v>ON Boarding</v>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H23" t="str">
+        <v>luis.zepeda@corporativosirn.com</v>
+      </c>
+      <c r="I23" t="str">
+        <v>2026-02-09</v>
+      </c>
+      <c r="J23" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario luis.zepeda@corporativosirn.com solicita validar curso de inducción, ya que no se cargaron las fotos. Adjuntó las evidencias en un archivo Word.
+Causa: Formato de archivo incorrecto para la gestión de evidencias (imágenes incrustadas en documento).
+Solución: Se solicitó al usuario el envío de las 3 fotografías en formato nativo de imagen (.JPG o .PNG) para poder realizar la carga y validación manual. se obtienen las fotos y se genera su certificado de nuevo</v>
+      </c>
+    </row>
+    <row r="24" xml:space="preserve">
+      <c r="A24" t="str">
+        <v>2451</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Buena tarde, al personal de seguridad de la unidad operativa Altamira no puede visualizar el procedimiento operativo que se adjunto</v>
+      </c>
+      <c r="C24" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F24" t="str">
+        <v>UO Altamira</v>
+      </c>
+      <c r="G24" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Ricardo Hernandez Ramirez</v>
+      </c>
+      <c r="I24" t="str">
+        <v>2026-02-09</v>
+      </c>
+      <c r="J24" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario Ricardo Hernandez (Contratista) reporta que el Técnico de Seguridad en Altamira no puede ver el Procedimiento Operativo que ya adjuntó.
+Causa: Bloqueo por flujo secuencial. El Técnico tiene validaciones de personal pendientes, lo que impide ver la siguiente fase (Alcance).
+Solución: Se explicó al contratista que el sistema es lineal. Se le instruyó solicitar al Técnico que complete las aprobaciones de personal para desbloquear la vista de los documentos operativos.</v>
+      </c>
+    </row>
+    <row r="25" xml:space="preserve">
+      <c r="A25" t="str">
+        <v>2450</v>
+      </c>
+      <c r="B25" t="str">
+        <v>Necesito dar de baja el proyecto con el número 261 de Uruapan ya que no se realizó trabajo de alto riesgo</v>
+      </c>
+      <c r="C25" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F25" t="str">
+        <v>UO Uruapan</v>
+      </c>
+      <c r="G25" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H25" t="str">
+        <v>encontacto@mhmh.com.mx</v>
+      </c>
+      <c r="I25" t="str">
+        <v>2026-02-09</v>
+      </c>
+      <c r="J25" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario encontacto@mhmh.com.mx solicita dar de baja el proyecto #261 en Uruapan debido a que no se realizaron trabajos de alto riesgo.
+Causa: Cancelación de actividades (No TAR).
+Solución: Se informó al usuario que la eliminación de proyectos es facultad exclusiva del Técnico de Seguridad. Se le instruyó contactar al técnico y dejar un comentario en la plataforma para trazabilidad.</v>
+      </c>
+    </row>
+    <row r="26" xml:space="preserve">
+      <c r="A26" t="str">
+        <v>2449</v>
+      </c>
+      <c r="B26" t="str">
+        <v>Necesito dar de baja en proyecto con el numero 262 de Apatzingan ya que no se realizo trabajo de alto riesgo</v>
+      </c>
+      <c r="C26" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F26" t="str">
+        <v>UO Apatzingán</v>
+      </c>
+      <c r="G26" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H26" t="str">
+        <v>encontacto@mhmh.com.mx</v>
+      </c>
+      <c r="I26" t="str">
+        <v>2026-02-09</v>
+      </c>
+      <c r="J26" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario encontacto@mhmh.com.mx solicita dar de baja el proyecto #262 debido a que no se realizaron trabajos de alto riesgo.
+Causa: Cancelación de actividades (No TAR).
+Solución: Se informó al usuario que la eliminación de proyectos es facultad del Técnico de Seguridad. Se le instruyó contactar al técnico y dejar un comentario en la plataforma justificando la baja para trazabilidad.</v>
+      </c>
+    </row>
+    <row r="27" xml:space="preserve">
+      <c r="A27" t="str">
+        <v>2448</v>
+      </c>
+      <c r="B27" t="str">
+        <v>No se visualiza el alcance de proyecto, sin embargo el proveedor comenta que ya lo cargo</v>
+      </c>
+      <c r="C27" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D27" t="str">
+        <v>1 - Alto-Urgente</v>
+      </c>
+      <c r="E27" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F27" t="str">
+        <v>UO Altamira</v>
+      </c>
+      <c r="G27" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H27" t="str">
+        <v>karla.medina@kof.com</v>
+      </c>
+      <c r="I27" t="str">
+        <v>2026-02-09</v>
+      </c>
+      <c r="J27" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: La usuaria karla.medina@kof.com no visualiza el "Alcance de Proyecto" aunque el contratista ya lo cargó.
+Causa: Bloqueo por flujo secuencial. Existen 4 colaboradores pendientes de validación en la etapa anterior (Listado de Personal).
+Solución: Se explicó a la Técnico que el sistema es lineal y requiere aprobar a los pendientes para desbloquear la vista del Alcance.</v>
+      </c>
+    </row>
+    <row r="28" xml:space="preserve">
+      <c r="A28" t="str">
+        <v>2447</v>
+      </c>
+      <c r="B28" t="str">
+        <v>eliminar ast en archivo y una imagen que dice html  solo dejar el archivo que dice reporte fotografico de pacifico de favor</v>
+      </c>
+      <c r="C28" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Distribución primaria - Pacifico</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H28" t="str">
+        <v>arconsindustry@gmail.com</v>
+      </c>
+      <c r="I28" t="str">
+        <v>2026-02-08</v>
+      </c>
+      <c r="J28" t="str" xml:space="preserve">
+        <v xml:space="preserve">---Problema: El usuario arconsindustry@gmail.com solicita eliminar archivos excedentes ("AST" e "imagen html") en la sección de Procedimiento Operativo, dejando solo el "Reporte fotográfico".
+Causa: Error de carga o archivos basura en la plataforma.
+Solución: Se eliminaron manualmente los archivos indicados, dejando únicamente el documento requerido por el usuario.</v>
+      </c>
+    </row>
+    <row r="29" xml:space="preserve">
+      <c r="A29" t="str">
+        <v>2446</v>
+      </c>
+      <c r="B29" t="str">
+        <v>Buenas noches, el día de ayer se cargo la información correspondiente a la UO Tamazunchale, para el día de hoy todavía no puedo visualizar la matriz IPERC para continuar con el proceso de cargar la in</v>
+      </c>
+      <c r="C29" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F29" t="str">
+        <v>UO Tamazunchale</v>
+      </c>
+      <c r="G29" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H29" t="str">
+        <v>rhm_ihesa@yahoo.com.mx</v>
+      </c>
+      <c r="I29" t="str">
+        <v>2026-02-07</v>
+      </c>
+      <c r="J29" t="str" xml:space="preserve">
+        <v xml:space="preserve">---Problema: El usuario rhm_ihesa@yahoo.com.mx reporta que no visualiza la Matriz IPERC a pesar de haber cargado la información previa el día anterior.
+Causa: Retraso en la actualización del flujo o caché del navegador.
+Solución: Se habilitó/actualizó la vista en el sistema. Se instruyó al usuario refrescar la página (F5) para visualizar los cambios.</v>
+      </c>
+    </row>
+    <row r="30" xml:space="preserve">
+      <c r="A30" t="str">
+        <v>2445</v>
+      </c>
+      <c r="B30" t="str">
+        <v>no se tiene vizualizacion de los proyectos ni los procesos de los mismos</v>
+      </c>
+      <c r="C30" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D30" t="str">
+        <v>1 - Alto-Urgente</v>
+      </c>
+      <c r="E30" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Planta San Juan del Rio</v>
+      </c>
+      <c r="G30" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H30" t="str">
+        <v>alberto.lopezp@kof.com</v>
+      </c>
+      <c r="I30" t="str">
+        <v>2026-02-07</v>
+      </c>
+      <c r="J30" t="str" xml:space="preserve">
+        <v xml:space="preserve">---Problema: El usuario alberto.lopezp@kof.com (Técnico) reporta pantalla en blanco o falta de visualización de proyectos y procesos en Planta San Juan del Río.
+Causa: Falta de permisos o configuración incompleta en el perfil del usuario para la nueva vista.
+Solución: Se actualizaron los permisos del usuario en la plataforma. Se le instruyó refrescar la página (F5) y reportar si la incidencia persiste para escalamiento inmediato.</v>
+      </c>
+    </row>
+    <row r="31" xml:space="preserve">
+      <c r="A31" t="str">
+        <v>2444</v>
+      </c>
+      <c r="B31" t="str">
+        <v>No se visualiza el SUA + el pago del comprobante sin embargo el proveedor ya lo cargo</v>
+      </c>
+      <c r="C31" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D31" t="str">
+        <v>1 - Alto-Urgente</v>
+      </c>
+      <c r="E31" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F31" t="str">
+        <v>UO Altamira</v>
+      </c>
+      <c r="G31" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H31" t="str">
+        <v>karla.medina@kof.com</v>
+      </c>
+      <c r="I31" t="str">
+        <v>2026-02-07</v>
+      </c>
+      <c r="J31" t="str" xml:space="preserve">
+        <v xml:space="preserve">--Problema: La usuaria karla.medina@kof.com reporta que no visualiza el SUA + Pago, aunque el contratista asegura haberlo subido.
+Causa: Error de carga por parte del contratista (no guardó cambios o no subió el archivo). Se verificó en el sistema y el archivo no existe.
+Solución: Se envió evidencia (screenshot) de la vista del contratista confirmando que el archivo no está en la plataforma. Se instruyó a la técnico para que solicite la carga nuevamente.</v>
+      </c>
+    </row>
+    <row r="32" xml:space="preserve">
+      <c r="A32" t="str">
+        <v>2443</v>
+      </c>
+      <c r="B32" t="str">
+        <v>He creado un perfil con el correo administracion@litecpuebla.com pero no puedo acceder a ello. Necesito subir documentación de personal.</v>
+      </c>
+      <c r="C32" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Planta Apizaco</v>
+      </c>
+      <c r="G32" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H32" t="str">
+        <v>administracion@litecpuebla.com</v>
+      </c>
+      <c r="I32" t="str">
+        <v>2026-02-07</v>
+      </c>
+      <c r="J32" t="str" xml:space="preserve">
+        <v xml:space="preserve">--Problema: El usuario administracion@litecpuebla.com reporta no poder acceder a su perfil para subir documentación.
+Causa: Falta de activación de cuenta Smartsheet y desconocimiento del flujo de alta (Empresa vs Proyecto).
+Solución:
+Se generó el usuario en Smartsheet y se enviaron instrucciones para crear contraseña y acceso a WorkApps.
+Se instruyó al usuario sobre el flujo mandatorio: Primero Alta de Empresa (Documentos Generales) y después Alta de Proyecto, advirtiendo que invertir el ord</v>
+      </c>
+    </row>
+    <row r="33" xml:space="preserve">
+      <c r="A33" t="str">
+        <v>2442</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Me apoyan a eliminar el archivo de Dc3 Pérez Chetla Luis Ángel del colaborador Luis Ángel Pérez Chetla</v>
+      </c>
+      <c r="C33" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F33" t="str">
+        <v>UO Querétaro</v>
+      </c>
+      <c r="G33" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H33" t="str">
+        <v>recursos.humanos</v>
+      </c>
+      <c r="I33" t="str">
+        <v>2026-02-07</v>
+      </c>
+      <c r="J33" t="str" xml:space="preserve">
+        <v xml:space="preserve">--Problema: El usuario recursos.humanos solicita eliminar el archivo DC3 del colaborador Luis Ángel Pérez Chetla para actualizarlo.
+Causa: El usuario continúa solicitando bajas manuales para renovar documentos.
+Solución: Se eliminó el archivo solicitado. Se le proporcionó el TIP específico sobre la función de sobrescritura automática (mismo nombre de archivo) para evitar futuros tickets de este tipo.</v>
+      </c>
+    </row>
+    <row r="34" xml:space="preserve">
+      <c r="A34" t="str">
+        <v>2441</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Me apoyan a eliminar el archivo Dc3 Uribe del Real Luis Fernando del colaborador Luis Fernando Uribe</v>
+      </c>
+      <c r="C34" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F34" t="str">
+        <v>UO Querétaro</v>
+      </c>
+      <c r="G34" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H34" t="str">
+        <v>recursos.humanos</v>
+      </c>
+      <c r="I34" t="str">
+        <v>2026-02-07</v>
+      </c>
+      <c r="J34" t="str" xml:space="preserve">
+        <v xml:space="preserve">--Problema: El usuario recursos.humanos solicita nuevamente eliminar un archivo DC3 específico (Luis Fernando Uribe) para actualizarlo.
+Causa: El usuario persiste en el procedimiento incorrecto (cree que debe borrar para actualizar), desconociendo la función de sobrescritura.
+Solución: Se eliminó el archivo solicitado. Se reiteró la instrucción de que la plataforma permite actualizar documentos cargando los nuevos sobre los anteriores sin necesidad de tickets de soporte.</v>
+      </c>
+    </row>
+    <row r="35" xml:space="preserve">
+      <c r="A35" t="str">
+        <v>2440</v>
+      </c>
+      <c r="B35" t="str">
+        <v>para actualizar la ainfirmacion de Dc-3 de un colaborador no me permite avanza me manda a una pantalla de error</v>
+      </c>
+      <c r="C35" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D35" t="str">
+        <v>2 - Medio-Tengo inconvenientes</v>
+      </c>
+      <c r="E35" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Planta Ojuelos-Pacifico</v>
+      </c>
+      <c r="G35" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Nalleli.Garcia@abiger.com.mx</v>
+      </c>
+      <c r="I35" t="str">
+        <v>2026-02-07</v>
+      </c>
+      <c r="J35" t="str" xml:space="preserve">
+        <v xml:space="preserve">--Problema: El usuario Nalleli.Garcia@abiger.com.mx reporta pantalla de error al intentar actualizar información (DC-3) de un colaborador.
+Causa: Problemas de conectividad local (intermitencia) o conflicto de caché en el navegador del usuario.
+Solución: Se instruyó al usuario realizar pruebas de conectividad: probar otro navegador, reiniciar WiFi y limpiar caché/cookies. Se proporcionó guía de pasos para borrar caché.</v>
+      </c>
+    </row>
+    <row r="36" xml:space="preserve">
+      <c r="A36" t="str">
+        <v>2439</v>
+      </c>
+      <c r="B36" t="str">
+        <v xml:space="preserve">se ha tratado de realizar el alta de personal a la pataforma y nos arroja la leyenda que ha sido registrado previamente. En investigaciones hemos detectado que dicho personal  no ha sido dado de alta </v>
+      </c>
+      <c r="C36" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F36" t="str">
+        <v>UO Comitán</v>
+      </c>
+      <c r="G36" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H36" t="str">
+        <v>chiapasegind@hotmail.com</v>
+      </c>
+      <c r="I36" t="str">
+        <v>2026-02-07</v>
+      </c>
+      <c r="J36" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario chiapasegind@hotmail.com reporta bloqueo al registrar personal ("registrado previamente"), adjuntando evidencia de que son empleados nuevos con su alta IMSS.
+Causa: Registros vinculados a empresas anteriores o datos residuales en la BD.
+Solución: Se validaron los documentos IMSS adjuntos. Se realizaron los movimientos en la base de datos para desvincular los NSS previos y permitir el nuevo registro.</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>2438</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Me apoyan eliminando el registro del colaborador: JONHATAN VELÁZQUEZ ARCHUNDIA, NSS: 16089109785, Ya que esta duplicado el registro</v>
+      </c>
+      <c r="C37" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D37" t="str">
+        <v>3 - Bajo-Puedo esperar</v>
+      </c>
+      <c r="E37" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F37" t="str">
+        <v>UO Pacífico</v>
+      </c>
+      <c r="G37" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H37" t="str">
+        <v>cristina.rodriguez@kof.com</v>
+      </c>
+      <c r="I37" t="str">
+        <v>2026-02-07</v>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38" xml:space="preserve">
+      <c r="A38" t="str">
+        <v>2437</v>
+      </c>
+      <c r="B38" t="str">
+        <v>no puedo dar de alta al personal en la plataforma ya segui el precedimiento como lo indican  pero me rechaza</v>
+      </c>
+      <c r="C38" t="str">
+        <v>4 - Esperando respuesta</v>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F38" t="str">
+        <v>UO Querétaro</v>
+      </c>
+      <c r="G38" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H38" t="str">
+        <v>diegoiccisahernandez@gmail.com</v>
+      </c>
+      <c r="I38" t="str">
+        <v>2026-02-06</v>
+      </c>
+      <c r="J38" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario diegoiccisahernandez@gmail.com no puede registrar al trabajador Misael Martínez Pérez (NSS 16129455263).
+Causa: Duplicidad. El trabajador ya existe en la BD ligado a otra razón social.
+Solución: Se explicaron dos escenarios:
+Si es empleado directo: Se solicitó SUA reciente para realizar la migración de empresa.
+Si es subcontratado: Se indicó la ruta correcta (Opción "Subcontratista") enfatizando que debe usar el RFC de la empresa titular (DLA190521LL1) para el registro.</v>
+      </c>
+    </row>
+    <row r="39" xml:space="preserve">
+      <c r="A39" t="str">
+        <v>2436</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Me apoyan con eliminar los documentos dc3 de Luis Fernando Uribe con Nss 14139617311</v>
+      </c>
+      <c r="C39" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F39" t="str">
+        <v>UO Querétaro</v>
+      </c>
+      <c r="G39" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H39" t="str">
+        <v>recursos.humanos</v>
+      </c>
+      <c r="I39" t="str">
+        <v>2026-02-06</v>
+      </c>
+      <c r="J39" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario recursos.humanos solicita eliminar documentos DC3 del trabajador Luis Fernando Uribe (NSS 14139617311).
+Causa: Necesidad de corrección o actualización de documentos (Desconocimiento de la función de sobrescritura).
+Solución: Se eliminaron manualmente los archivos solicitados. Se instruyó al usuario sobre la capacidad del sistema para reemplazar archivos automáticamente sin necesidad de borrarlos previamente.</v>
+      </c>
+    </row>
+    <row r="40" xml:space="preserve">
+      <c r="A40" t="str">
+        <v>2435</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Sigue en PENDIENTE mi información anexada y esta completo según requisitos</v>
+      </c>
+      <c r="C40" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Planta Apizaco</v>
+      </c>
+      <c r="G40" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H40" t="str">
+        <v>macroquim1@hotmail.com</v>
+      </c>
+      <c r="I40" t="str">
+        <v>2026-02-06</v>
+      </c>
+      <c r="J40" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario macroquim1@hotmail.com reporta que sus documentos siguen en estatus "Pendiente" a pesar de haberlos subido completos.
+Causa: Flujo normal de aprobación. El usuario desconoce que "Pendiente" requiere la acción del Técnico de Seguridad.
+Solución: Se aclaró el significado del estatus. Se envió notificación (CCO) a la lista de contactos de Planta Apizaco para solicitar la revisión de la documentación.</v>
+      </c>
+    </row>
+    <row r="41" xml:space="preserve">
+      <c r="A41" t="str">
+        <v>2434</v>
+      </c>
+      <c r="B41" t="str">
+        <v>se realizo el curso de onboarding, pero en el listado de personal no migro, colaborador: HURIBERTO DADO GONZALEZ, NSS: 06169720288</v>
+      </c>
+      <c r="C41" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D41" t="str">
+        <v>2 - Medio-Tengo inconvenientes</v>
+      </c>
+      <c r="E41" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F41" t="str">
+        <v>UO Pacífico</v>
+      </c>
+      <c r="G41" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H41" t="str">
+        <v>cristina.rodriguez@kof.com</v>
+      </c>
+      <c r="I41" t="str">
+        <v>2026-02-06</v>
+      </c>
+      <c r="J41" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: La usuaria cristina.rodriguez@kof.com reporta que el curso Onboarding de Huriberto Dado Gonzalez no se refleja en el Listado de Personal.
+Causa: Error de captura del usuario. El operador se registró en el curso con un RFC/NSS diferente al del sistema TAR, impidiendo la vinculación automática.
+Solución: Se corrigieron el RFC y NSS en el registro del curso Onboarding para hacer match con la base de datos de personal. Se notificó la corrección.</v>
+      </c>
+    </row>
+    <row r="42" xml:space="preserve">
+      <c r="A42" t="str">
+        <v>2433</v>
+      </c>
+      <c r="B42" t="str">
+        <v xml:space="preserve">Hay un par de trabajadores que están asignados, tienen habilitado actividades con manejo de quimicos pero en la asignación del ast, aparecen como no aptos para actividades no peligrosas, pero si para </v>
+      </c>
+      <c r="C42" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D42" t="str">
+        <v>1 - Alto-Urgente</v>
+      </c>
+      <c r="E42" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F42" t="str">
+        <v>UO Apatzingán</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H42" t="str">
+        <v>federico.calderon@kof.com</v>
+      </c>
+      <c r="I42" t="str">
+        <v>2026-02-06</v>
+      </c>
+      <c r="J42" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario federico.calderon@kof.com reporta inconsistencia en aptitudes en el AST (Personal apto para Químicos pero no para actividades generales).
+Causa: Falta de captura de datos (Metadata). El contratista subió los archivos DC3 pero no ingresó las fechas de vigencia en el sistema, impidiendo la validación automática.
+Solución: Se explicó al Técnico que debe solicitar al contratista la captura manual de las fechas de los cursos para que el sistema actualice los estatus de aptitud.</v>
+      </c>
+    </row>
+    <row r="43" xml:space="preserve">
+      <c r="A43" t="str">
+        <v>2432</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Buenas tardes, por favor me podrian ayudar, ya puedo visualizar mi IPER aprobado pero el encargado de SASSO en planta no puede visualizar la información. Muchas gracias.</v>
+      </c>
+      <c r="C43" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F43" t="str">
+        <v>UO Viga</v>
+      </c>
+      <c r="G43" t="str">
+        <v>Itzel Garcia</v>
+      </c>
+      <c r="H43" t="str">
+        <v>maires_2011@yahoo.com.mx</v>
+      </c>
+      <c r="I43" t="str">
+        <v>2026-02-05</v>
+      </c>
+      <c r="J43" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema:
+El encargado de SASSO en planta no podía visualizar la información del análisis IPERC, aun cuando el contratista ya lo tenía aprobado y visible en su módulo.
+Causa:
+El análisis IPERC se generó correctamente; sin embargo, las columnas de actividad adicional se mostraban primero y el resto de la información quedaba debajo de estas, por lo que no se apreciaba a primera vista.
+Solución:
+Se realizó una actualización en el sistema para corregir la visualización de las columnas, mostrando a</v>
+      </c>
+    </row>
+    <row r="44" xml:space="preserve">
+      <c r="A44" t="str">
+        <v>2431</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Estuve tratando de aserlo en mi celular el día de ayer y se me trabo muchas veces el internet y cada q se me trababa lo contó cómo intentos echos o enviados me podrían apoyar para poder generar el exa</v>
+      </c>
+      <c r="C44" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v>ON Boarding</v>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H44" t="str">
+        <v>chris200821kailany@gmail.com</v>
+      </c>
+      <c r="I44" t="str">
+        <v>2026-02-05</v>
+      </c>
+      <c r="J44" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario chris200821kailany@gmail.com solicita desbloqueo de examen. Argumenta que fallas de internet en su celular consumieron sus intentos erróneamente.
+Causa: Agotamiento de intentos (3/3). El usuario probablemente envió el formulario 3 veces
+Solución: Se aclaró que el sistema solo cuenta intentos "enviados". Se validó en BD que los 3 intentos fueron consumidos. Se informó sobre la política de bloqueo por 6 meses.</v>
+      </c>
+    </row>
+    <row r="45" xml:space="preserve">
+      <c r="A45" t="str">
+        <v>2430</v>
+      </c>
+      <c r="B45" t="str">
+        <v>INGRESANDO AL CURSO DE INDUCCION, NO TIENE SONIDO EL VIDEO Y NO VEO LA OPCION DE REGISTRARSE.  LES AGRADECERIA ME INFORMEN CUANDO SE PODRA TOMAR EL CURSO</v>
+      </c>
+      <c r="C45" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v>ON Boarding</v>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H45" t="str">
+        <v>naranjoed@yahoo.com</v>
+      </c>
+      <c r="I45" t="str">
+        <v>2026-02-05</v>
+      </c>
+      <c r="J45" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario naranjoed@yahoo.com reporta falta de audio en el video y no encuentra la opción de registro. Pregunta disponibilidad del curso.
+Causa: Diseño del material (visual/sin audio) y flujo del sistema (el registro aparece al final).
+Solución: Se confirmó que el video es mudo. Se explicó que el examen se activa al terminar el video. Se proporcionó el link directo y recomendaciones de conectividad</v>
+      </c>
+    </row>
+    <row r="46" xml:space="preserve">
+      <c r="A46" t="str">
+        <v>2429</v>
+      </c>
+      <c r="B46" t="str" xml:space="preserve">
+        <v xml:space="preserve">El video no tiene sonido.
+No aparece algún lugar para registrarse.</v>
+      </c>
+      <c r="C46" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v>ON Boarding</v>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H46" t="str">
+        <v>rafaelnaranjoruiz@hotmail.com</v>
+      </c>
+      <c r="I46" t="str">
+        <v>2026-02-05</v>
+      </c>
+      <c r="J46" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario rafaelnaranjoruiz@hotmail.com reporta que el video no tiene audio y no encuentra dónde registrarse para el examen.
+Causa: El material es visual (sin audio por diseño). El link del examen solo aparece al finalizar el video (condicional).
+Solución: Se confirmó que el video es mudo y se debe leer las diapositivas. Se explicó que el examen se activa automáticamente al terminar la reproducción. Se recomendó usar  buena conexión INTERNET.</v>
+      </c>
+    </row>
+    <row r="47" xml:space="preserve">
+      <c r="A47" t="str">
+        <v>2428</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Eliminar un documento lo cual tiene una fecha incorrecta el documento esta en recuadro amarillo el documento a eliminar</v>
+      </c>
+      <c r="C47" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D47" t="str">
+        <v>1 - Alto-Urgente</v>
+      </c>
+      <c r="E47" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Planta Apizaco</v>
+      </c>
+      <c r="G47" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H47" t="str">
+        <v>seguridadhebi@yahoo.com</v>
+      </c>
+      <c r="I47" t="str">
+        <v>2026-02-05</v>
+      </c>
+      <c r="J47" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario seguridadhebi@yahoo.com (Técnico) solicita eliminar un documento en estatus de revisión (amarillo) debido a una fecha incorrecta.
+Causa: Error de captura/carga. Se requiere limpieza del registro para permitir nueva carga correcta.
+Solución: Se eliminó manualmente el documento indicado en la plataforma para liberar el campo. Se notificó al usuario.</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="A48" t="str">
+        <v>2427</v>
+      </c>
+      <c r="B48" t="str">
+        <v>No se ejecutaron los trabajos, tampoco se tiene nueva fecha de ejecución.</v>
+      </c>
+      <c r="C48" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D48" t="str">
+        <v>3 - Bajo-Puedo esperar</v>
+      </c>
+      <c r="E48" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F48" t="str">
+        <v>UO Huajuapan</v>
+      </c>
+      <c r="G48" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H48" t="str">
+        <v>cecilia.indo@kof.com</v>
+      </c>
+      <c r="I48" t="str">
+        <v>2026-02-05</v>
+      </c>
+      <c r="J48" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario solicita dar de baja un proyecto activo en la plataforma.
+Causa: El usuario desconoce el flujo de autogestión para solicitar cancelaciones/bajas (requiere aprobación del Ejecutivo).
+Solución: Se instruyó al usuario sobre el procedimiento correcto: debe ingresar a "Informe de Control de Proyectos", seleccionar "Solicitud de Baja" y justificar el motivo para detonar la validación del Ejecutivo de Seguridad. Se adjuntó video tutorial.</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="A49" t="str">
+        <v>2426</v>
+      </c>
+      <c r="B49" t="str">
+        <v>no se ejecutaron trabajos de alto riesgo (soldadura)</v>
+      </c>
+      <c r="C49" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D49" t="str">
+        <v>3 - Bajo-Puedo esperar</v>
+      </c>
+      <c r="E49" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F49" t="str">
+        <v>UO Huajuapan</v>
+      </c>
+      <c r="G49" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H49" t="str">
+        <v>cecilia.indo@kof.com</v>
+      </c>
+      <c r="I49" t="str">
+        <v>2026-02-05</v>
+      </c>
+      <c r="J49" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario solicita dar de baja un proyecto activo en la plataforma.
+Causa: El usuario desconoce el flujo de autogestión para solicitar cancelaciones/bajas (requiere aprobación del Ejecutivo).
+Solución: Se instruyó al usuario sobre el procedimiento correcto: debe ingresar a "Informe de Control de Proyectos", seleccionar "Solicitud de Baja" y justificar el motivo para detonar la validación del Ejecutivo de Seguridad. Se adjuntó video tutorial.</v>
+      </c>
+    </row>
+    <row r="50" xml:space="preserve">
+      <c r="A50" t="str">
+        <v>2425</v>
+      </c>
+      <c r="B50" t="str">
+        <v xml:space="preserve">Podrían eliminar el bug generado por la eliminación de los siguientes colaboradores: Francisco Simón Pérez NSS 03158838692, Guadalupe Cecilia Sánchez Amado NSS 01027201852, Roberto Salvador Simón NSS </v>
+      </c>
+      <c r="C50" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v>TAR</v>
+      </c>
+      <c r="F50" t="str">
+        <v>UO Coecillo</v>
+      </c>
+      <c r="G50" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H50" t="str">
+        <v>erika.rodriguez@netpoint.com.mx</v>
+      </c>
+      <c r="I50" t="str">
+        <v>2026-02-05</v>
+      </c>
+      <c r="J50" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario erika.rodriguez@netpoint.com.mx reporta incapacidad para re-registrar a 5 colaboradores que eliminó previamente (posible bloqueo de NSS).
+Causa: Bloqueo temporal del sistema tras la eliminación manual de usuarios por parte del contratista.
+Solución: Se realizaron los ajustes internos. Se instruyó al usuario refrescar la página (F5) e intentar el alta nuevamente. Se reiteró que no es necesario borrar para actualizar documentos.</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="A51" t="str">
+        <v>2424</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Tengo un colaborador del proveedor que nos da servicio de limpieza en la UO Apatzingán. Que realizó el proceso de certificación, pero argumenta que por problemas en su dispositivo móvil (no reproducía</v>
+      </c>
+      <c r="C51" t="str">
+        <v>5 - Solucionado</v>
+      </c>
+      <c r="D51" t="str">
+        <v>1 - Alto-Urgente</v>
+      </c>
+      <c r="E51" t="str">
+        <v>ON Boarding</v>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <v>Giovvani Misael Melchor Fraga</v>
+      </c>
+      <c r="H51" t="str">
+        <v>federico.calderon@kof.com</v>
+      </c>
+      <c r="I51" t="str">
+        <v>2026-02-05</v>
+      </c>
+      <c r="J51" t="str" xml:space="preserve">
+        <v xml:space="preserve">Problema: El usuario federico.calderon@kof.com solicita resetear el examen de certificación para una trabajadora de limpieza (Maria Lucero Rangel) que reprobó 3 veces por problemas técnicos (móvil).
+Causa: Política de certificación (3 intentos fallidos = bloqueo temporal).
+Solución: Se consultó con administración y se confirmó que no hay excepciones actuales. Se informó al usuario que el tiempo de espera obligatorio es de 6 meses, aunque se está evaluando la política para intendencia a futuro.</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J2"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
-    <col min="4" max="4" width="30.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Campo</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Descripcion</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Requerido</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Ejemplo</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>=== INSTRUCCIONES ===</v>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Plantilla: tickets</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Incidentes y solicitudes</v>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v/>
-      </c>
-      <c r="B4" t="str">
-        <v/>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>=== CAMPOS ===</v>
-      </c>
-      <c r="B5" t="str">
-        <v/>
-      </c>
-      <c r="C5" t="str">
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>titulo</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Título del ticket</v>
-      </c>
-      <c r="C6" t="str">
-        <v>SÍ</v>
-      </c>
-      <c r="D6" t="str">
-        <v>No funciona el correo</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>descripcion</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Descripción detallada</v>
-      </c>
-      <c r="C7" t="str">
-        <v>SÍ</v>
-      </c>
-      <c r="D7" t="str">
-        <v>El usuario no puede enviar correos desde Outlook</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>tipo</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Tipo (Incidente/Solicitud)</v>
-      </c>
-      <c r="C8" t="str">
-        <v>No</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Incidente</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>categoria</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Categoría</v>
-      </c>
-      <c r="C9" t="str">
-        <v>No</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Correo Electrónico</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>urgencia</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Urgencia (1-5)</v>
-      </c>
-      <c r="C10" t="str">
-        <v>No</v>
-      </c>
-      <c r="D10" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>impacto</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Impacto (1-5)</v>
-      </c>
-      <c r="C11" t="str">
-        <v>No</v>
-      </c>
-      <c r="D11" t="str">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>solicitante</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Usuario solicitante (login)</v>
-      </c>
-      <c r="C12" t="str">
-        <v>No</v>
-      </c>
-      <c r="D12" t="str">
-        <v>jperez</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>asignado</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Técnico asignado (login)</v>
-      </c>
-      <c r="C13" t="str">
-        <v>No</v>
-      </c>
-      <c r="D13" t="str">
-        <v>tecnico1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>grupo</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Grupo asignado</v>
-      </c>
-      <c r="C14" t="str">
-        <v>No</v>
-      </c>
-      <c r="D14" t="str">
-        <v>Soporte Nivel 1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>ubicacion</v>
-      </c>
-      <c r="B15" t="str">
-        <v>Ubicación del problema</v>
-      </c>
-      <c r="C15" t="str">
-        <v>No</v>
-      </c>
-      <c r="D15" t="str">
-        <v>Oficina Central</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D15"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J51"/>
   </ignoredErrors>
 </worksheet>
 </file>